--- a/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C494FF-39AF-4B01-8025-48906CD96C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CF18F-BDED-4319-918A-5FE7C4C60256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-28 (2)</t>
-  </si>
-  <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-04-08 (8)</t>
-  </si>
-  <si>
-    <t>1401-05-04 (3)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
-  </si>
-  <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (7)</t>
   </si>
   <si>
     <t>1401-05-04 (2)</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,14 +596,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,13 +609,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,13 +620,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,13 +631,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,13 +640,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,13 +651,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,13 +662,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,13 +671,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,59 +692,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -819,519 +722,304 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>125777</v>
+        <v>159961</v>
       </c>
       <c r="E11" s="13">
-        <v>116026</v>
+        <v>138812</v>
       </c>
       <c r="F11" s="13">
-        <v>211182</v>
+        <v>236542</v>
       </c>
       <c r="G11" s="13">
-        <v>162845</v>
+        <v>187229</v>
       </c>
       <c r="H11" s="13">
-        <v>234396</v>
-      </c>
-      <c r="I11" s="13">
-        <v>207527</v>
-      </c>
-      <c r="J11" s="13">
-        <v>159961</v>
-      </c>
-      <c r="K11" s="13">
-        <v>138812</v>
-      </c>
-      <c r="L11" s="13">
-        <v>236542</v>
-      </c>
-      <c r="M11" s="13">
-        <v>187229</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>133430</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-52382</v>
+        <v>-181308</v>
       </c>
       <c r="E12" s="11">
-        <v>-48469</v>
+        <v>-232828</v>
       </c>
       <c r="F12" s="11">
-        <v>-80536</v>
+        <v>-150219</v>
       </c>
       <c r="G12" s="11">
-        <v>-82861</v>
+        <v>-145770</v>
       </c>
       <c r="H12" s="11">
-        <v>-102279</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-99491</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-113401</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-181921</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-150219</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-143762</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-86446</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>73395</v>
+        <v>-21347</v>
       </c>
       <c r="E13" s="15">
-        <v>67557</v>
+        <v>-94017</v>
       </c>
       <c r="F13" s="15">
-        <v>130646</v>
+        <v>86323</v>
       </c>
       <c r="G13" s="15">
-        <v>79983</v>
+        <v>41459</v>
       </c>
       <c r="H13" s="15">
-        <v>132116</v>
-      </c>
-      <c r="I13" s="15">
-        <v>108036</v>
-      </c>
-      <c r="J13" s="15">
-        <v>46560</v>
-      </c>
-      <c r="K13" s="15">
-        <v>-43109</v>
-      </c>
-      <c r="L13" s="15">
-        <v>86323</v>
-      </c>
-      <c r="M13" s="15">
-        <v>43467</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46983</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-40232</v>
+        <v>-16717</v>
       </c>
       <c r="E14" s="11">
-        <v>-29845</v>
+        <v>-22461</v>
       </c>
       <c r="F14" s="11">
-        <v>-42382</v>
+        <v>-43652</v>
       </c>
       <c r="G14" s="11">
-        <v>-38281</v>
+        <v>-44386</v>
       </c>
       <c r="H14" s="11">
-        <v>-37942</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-40861</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-16717</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-31010</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-43652</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-51797</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-24090</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>29344</v>
+        <v>733</v>
       </c>
       <c r="E16" s="11">
-        <v>32540</v>
+        <v>-3055</v>
       </c>
       <c r="F16" s="11">
-        <v>9928</v>
+        <v>3306</v>
       </c>
       <c r="G16" s="11">
-        <v>-19989</v>
+        <v>-2309</v>
       </c>
       <c r="H16" s="11">
-        <v>-9081</v>
-      </c>
-      <c r="I16" s="11">
-        <v>7900</v>
-      </c>
-      <c r="J16" s="11">
-        <v>733</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-3055</v>
-      </c>
-      <c r="L16" s="11">
-        <v>3306</v>
-      </c>
-      <c r="M16" s="11">
-        <v>-2309</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13656</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>62507</v>
+        <v>-37331</v>
       </c>
       <c r="E17" s="15">
-        <v>70252</v>
+        <v>-119533</v>
       </c>
       <c r="F17" s="15">
-        <v>98192</v>
+        <v>45976</v>
       </c>
       <c r="G17" s="15">
-        <v>21713</v>
+        <v>-5236</v>
       </c>
       <c r="H17" s="15">
-        <v>85093</v>
-      </c>
-      <c r="I17" s="15">
-        <v>75075</v>
-      </c>
-      <c r="J17" s="15">
-        <v>30577</v>
-      </c>
-      <c r="K17" s="15">
-        <v>-77174</v>
-      </c>
-      <c r="L17" s="15">
-        <v>45976</v>
-      </c>
-      <c r="M17" s="15">
-        <v>-10639</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>36549</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1660</v>
+        <v>2694</v>
       </c>
       <c r="E19" s="13">
-        <v>36</v>
+        <v>4137</v>
       </c>
       <c r="F19" s="13">
-        <v>-929</v>
+        <v>699</v>
       </c>
       <c r="G19" s="13">
-        <v>907</v>
+        <v>4990</v>
       </c>
       <c r="H19" s="13">
-        <v>3165</v>
-      </c>
-      <c r="I19" s="13">
-        <v>4186</v>
-      </c>
-      <c r="J19" s="13">
-        <v>2694</v>
-      </c>
-      <c r="K19" s="13">
-        <v>4137</v>
-      </c>
-      <c r="L19" s="13">
-        <v>699</v>
-      </c>
-      <c r="M19" s="13">
-        <v>-2357</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>64167</v>
+        <v>-34637</v>
       </c>
       <c r="E20" s="17">
-        <v>70289</v>
+        <v>-115396</v>
       </c>
       <c r="F20" s="17">
-        <v>97263</v>
+        <v>46674</v>
       </c>
       <c r="G20" s="17">
-        <v>22620</v>
+        <v>-246</v>
       </c>
       <c r="H20" s="17">
-        <v>88258</v>
-      </c>
-      <c r="I20" s="17">
-        <v>79261</v>
-      </c>
-      <c r="J20" s="17">
-        <v>33270</v>
-      </c>
-      <c r="K20" s="17">
-        <v>-73037</v>
-      </c>
-      <c r="L20" s="17">
-        <v>46674</v>
-      </c>
-      <c r="M20" s="17">
-        <v>-12996</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>38225</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="13">
+        <v>21</v>
+      </c>
+      <c r="F21" s="13">
         <v>-9335</v>
       </c>
-      <c r="M21" s="13">
+      <c r="G21" s="13">
         <v>8844</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H21" s="13">
+        <v>-15496</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>64167</v>
+        <v>-34637</v>
       </c>
       <c r="E22" s="17">
-        <v>70289</v>
+        <v>-115396</v>
       </c>
       <c r="F22" s="17">
-        <v>97263</v>
+        <v>37339</v>
       </c>
       <c r="G22" s="17">
-        <v>22620</v>
+        <v>8598</v>
       </c>
       <c r="H22" s="17">
-        <v>88258</v>
-      </c>
-      <c r="I22" s="17">
-        <v>79261</v>
-      </c>
-      <c r="J22" s="17">
-        <v>33270</v>
-      </c>
-      <c r="K22" s="17">
-        <v>-73037</v>
-      </c>
-      <c r="L22" s="17">
-        <v>37339</v>
-      </c>
-      <c r="M22" s="17">
-        <v>-4152</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>22729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>64167</v>
+        <v>-34637</v>
       </c>
       <c r="E24" s="17">
-        <v>70289</v>
+        <v>-115396</v>
       </c>
       <c r="F24" s="17">
-        <v>97263</v>
+        <v>37339</v>
       </c>
       <c r="G24" s="17">
-        <v>22620</v>
+        <v>8598</v>
       </c>
       <c r="H24" s="17">
-        <v>88258</v>
-      </c>
-      <c r="I24" s="17">
-        <v>79261</v>
-      </c>
-      <c r="J24" s="17">
-        <v>33270</v>
-      </c>
-      <c r="K24" s="17">
-        <v>-73037</v>
-      </c>
-      <c r="L24" s="17">
-        <v>37339</v>
-      </c>
-      <c r="M24" s="17">
-        <v>-4152</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>22729</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1349,61 +1037,31 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>14738</v>
+        <v>8429</v>
       </c>
       <c r="E26" s="11">
-        <v>10883</v>
+        <v>8713</v>
       </c>
       <c r="F26" s="11">
-        <v>8831</v>
+        <v>8168</v>
       </c>
       <c r="G26" s="11">
-        <v>9826</v>
+        <v>7738</v>
       </c>
       <c r="H26" s="11">
-        <v>10287</v>
-      </c>
-      <c r="I26" s="11">
-        <v>9195</v>
-      </c>
-      <c r="J26" s="11">
-        <v>8429</v>
-      </c>
-      <c r="K26" s="11">
-        <v>8713</v>
-      </c>
-      <c r="L26" s="11">
-        <v>8168</v>
-      </c>
-      <c r="M26" s="11">
-        <v>7738</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1421,23 +1079,8 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1445,11 +1088,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CF18F-BDED-4319-918A-5FE7C4C60256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A83E25-0D56-4D86-B2CF-E83FE905324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-04-08 (8)</t>
+  </si>
+  <si>
+    <t>1401-05-04 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
   </si>
   <si>
     <t>1401-10-28 (2)</t>
@@ -588,20 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,304 +819,519 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>116026</v>
+      </c>
+      <c r="E11" s="13">
+        <v>211182</v>
+      </c>
+      <c r="F11" s="13">
+        <v>162845</v>
+      </c>
+      <c r="G11" s="13">
+        <v>234396</v>
+      </c>
+      <c r="H11" s="13">
+        <v>207527</v>
+      </c>
+      <c r="I11" s="13">
         <v>159961</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>138812</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>236542</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>187229</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>133430</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-48469</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-80536</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-82861</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-102279</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-145235</v>
+      </c>
+      <c r="I12" s="11">
         <v>-181308</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-232828</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-150219</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-145770</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-86446</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>67557</v>
+      </c>
+      <c r="E13" s="15">
+        <v>130646</v>
+      </c>
+      <c r="F13" s="15">
+        <v>79983</v>
+      </c>
+      <c r="G13" s="15">
+        <v>132116</v>
+      </c>
+      <c r="H13" s="15">
+        <v>62292</v>
+      </c>
+      <c r="I13" s="15">
         <v>-21347</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>-94017</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>86323</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>41459</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>46983</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-29845</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-42382</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-38281</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-37942</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-40861</v>
+      </c>
+      <c r="I14" s="11">
         <v>-16717</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-22461</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-43652</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-44386</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-24090</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>32540</v>
+      </c>
+      <c r="E16" s="11">
+        <v>9928</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-19989</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-9081</v>
+      </c>
+      <c r="H16" s="11">
+        <v>7900</v>
+      </c>
+      <c r="I16" s="11">
         <v>733</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-3055</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>3306</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>-2309</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>13656</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>70252</v>
+      </c>
+      <c r="E17" s="15">
+        <v>98192</v>
+      </c>
+      <c r="F17" s="15">
+        <v>21713</v>
+      </c>
+      <c r="G17" s="15">
+        <v>85093</v>
+      </c>
+      <c r="H17" s="15">
+        <v>29331</v>
+      </c>
+      <c r="I17" s="15">
         <v>-37331</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>-119533</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>45976</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>-5236</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>36549</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>36</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-929</v>
+      </c>
+      <c r="F19" s="13">
+        <v>907</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3165</v>
+      </c>
+      <c r="H19" s="13">
+        <v>4186</v>
+      </c>
+      <c r="I19" s="13">
         <v>2694</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>4137</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>699</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>4990</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>1677</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>70289</v>
+      </c>
+      <c r="E20" s="17">
+        <v>97263</v>
+      </c>
+      <c r="F20" s="17">
+        <v>22620</v>
+      </c>
+      <c r="G20" s="17">
+        <v>88258</v>
+      </c>
+      <c r="H20" s="17">
+        <v>33517</v>
+      </c>
+      <c r="I20" s="17">
         <v>-34637</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>-115396</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>46674</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>-246</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>38225</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="13">
+        <v>31</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="13">
         <v>-9335</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>8844</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-15496</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>70289</v>
+      </c>
+      <c r="E22" s="17">
+        <v>97263</v>
+      </c>
+      <c r="F22" s="17">
+        <v>22620</v>
+      </c>
+      <c r="G22" s="17">
+        <v>88258</v>
+      </c>
+      <c r="H22" s="17">
+        <v>33517</v>
+      </c>
+      <c r="I22" s="17">
         <v>-34637</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>-115396</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>37339</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>8598</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>22729</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>70289</v>
+      </c>
+      <c r="E24" s="17">
+        <v>97263</v>
+      </c>
+      <c r="F24" s="17">
+        <v>22620</v>
+      </c>
+      <c r="G24" s="17">
+        <v>88258</v>
+      </c>
+      <c r="H24" s="17">
+        <v>33517</v>
+      </c>
+      <c r="I24" s="17">
         <v>-34637</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>-115396</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>37339</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>8598</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>22729</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1037,31 +1349,61 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>10883</v>
+      </c>
+      <c r="E26" s="11">
+        <v>8831</v>
+      </c>
+      <c r="F26" s="11">
+        <v>9826</v>
+      </c>
+      <c r="G26" s="11">
+        <v>10287</v>
+      </c>
+      <c r="H26" s="11">
+        <v>9195</v>
+      </c>
+      <c r="I26" s="11">
         <v>8429</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>8713</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>8168</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>7738</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>6908</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1079,8 +1421,23 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A83E25-0D56-4D86-B2CF-E83FE905324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2A897-0329-41F2-A87B-D916C8F43507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-05-04 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>116026</v>
+        <v>211182</v>
       </c>
       <c r="E11" s="13">
-        <v>211182</v>
+        <v>162845</v>
       </c>
       <c r="F11" s="13">
-        <v>162845</v>
+        <v>234396</v>
       </c>
       <c r="G11" s="13">
-        <v>234396</v>
+        <v>207527</v>
       </c>
       <c r="H11" s="13">
-        <v>207527</v>
+        <v>159961</v>
       </c>
       <c r="I11" s="13">
-        <v>159961</v>
+        <v>138812</v>
       </c>
       <c r="J11" s="13">
-        <v>138812</v>
+        <v>236542</v>
       </c>
       <c r="K11" s="13">
-        <v>236542</v>
+        <v>187229</v>
       </c>
       <c r="L11" s="13">
-        <v>187229</v>
+        <v>133430</v>
       </c>
       <c r="M11" s="13">
-        <v>133430</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>88615</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-48469</v>
+        <v>-80536</v>
       </c>
       <c r="E12" s="11">
-        <v>-80536</v>
+        <v>-82861</v>
       </c>
       <c r="F12" s="11">
-        <v>-82861</v>
+        <v>-102279</v>
       </c>
       <c r="G12" s="11">
-        <v>-102279</v>
+        <v>-145235</v>
       </c>
       <c r="H12" s="11">
-        <v>-145235</v>
+        <v>-181308</v>
       </c>
       <c r="I12" s="11">
-        <v>-181308</v>
+        <v>-119285</v>
       </c>
       <c r="J12" s="11">
-        <v>-232828</v>
+        <v>-150219</v>
       </c>
       <c r="K12" s="11">
-        <v>-150219</v>
+        <v>-145770</v>
       </c>
       <c r="L12" s="11">
-        <v>-145770</v>
+        <v>-86446</v>
       </c>
       <c r="M12" s="11">
-        <v>-86446</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-61521</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>67557</v>
+        <v>130646</v>
       </c>
       <c r="E13" s="15">
-        <v>130646</v>
+        <v>79983</v>
       </c>
       <c r="F13" s="15">
-        <v>79983</v>
+        <v>132116</v>
       </c>
       <c r="G13" s="15">
-        <v>132116</v>
+        <v>62292</v>
       </c>
       <c r="H13" s="15">
-        <v>62292</v>
+        <v>-21347</v>
       </c>
       <c r="I13" s="15">
-        <v>-21347</v>
+        <v>19527</v>
       </c>
       <c r="J13" s="15">
-        <v>-94017</v>
+        <v>86323</v>
       </c>
       <c r="K13" s="15">
-        <v>86323</v>
+        <v>41459</v>
       </c>
       <c r="L13" s="15">
-        <v>41459</v>
+        <v>46983</v>
       </c>
       <c r="M13" s="15">
-        <v>46983</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>27094</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-29845</v>
+        <v>-42382</v>
       </c>
       <c r="E14" s="11">
-        <v>-42382</v>
+        <v>-38281</v>
       </c>
       <c r="F14" s="11">
-        <v>-38281</v>
+        <v>-37942</v>
       </c>
       <c r="G14" s="11">
-        <v>-37942</v>
+        <v>-40861</v>
       </c>
       <c r="H14" s="11">
-        <v>-40861</v>
+        <v>-16717</v>
       </c>
       <c r="I14" s="11">
-        <v>-16717</v>
+        <v>-31010</v>
       </c>
       <c r="J14" s="11">
-        <v>-22461</v>
+        <v>-43652</v>
       </c>
       <c r="K14" s="11">
-        <v>-43652</v>
+        <v>-44386</v>
       </c>
       <c r="L14" s="11">
-        <v>-44386</v>
+        <v>-24090</v>
       </c>
       <c r="M14" s="11">
-        <v>-24090</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-24943</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,79 +1006,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>32540</v>
+        <v>9928</v>
       </c>
       <c r="E16" s="11">
-        <v>9928</v>
+        <v>-19989</v>
       </c>
       <c r="F16" s="11">
-        <v>-19989</v>
+        <v>-9081</v>
       </c>
       <c r="G16" s="11">
-        <v>-9081</v>
+        <v>7900</v>
       </c>
       <c r="H16" s="11">
-        <v>7900</v>
+        <v>733</v>
       </c>
       <c r="I16" s="11">
-        <v>733</v>
+        <v>-3055</v>
       </c>
       <c r="J16" s="11">
-        <v>-3055</v>
+        <v>3306</v>
       </c>
       <c r="K16" s="11">
-        <v>3306</v>
+        <v>-2309</v>
       </c>
       <c r="L16" s="11">
-        <v>-2309</v>
+        <v>13656</v>
       </c>
       <c r="M16" s="11">
-        <v>13656</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12849</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>70252</v>
+        <v>98192</v>
       </c>
       <c r="E17" s="15">
-        <v>98192</v>
+        <v>21713</v>
       </c>
       <c r="F17" s="15">
-        <v>21713</v>
+        <v>85093</v>
       </c>
       <c r="G17" s="15">
-        <v>85093</v>
+        <v>29331</v>
       </c>
       <c r="H17" s="15">
-        <v>29331</v>
+        <v>-37331</v>
       </c>
       <c r="I17" s="15">
-        <v>-37331</v>
+        <v>-14539</v>
       </c>
       <c r="J17" s="15">
-        <v>-119533</v>
+        <v>45976</v>
       </c>
       <c r="K17" s="15">
-        <v>45976</v>
+        <v>-5236</v>
       </c>
       <c r="L17" s="15">
-        <v>-5236</v>
+        <v>36549</v>
       </c>
       <c r="M17" s="15">
-        <v>36549</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1113,79 +1114,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>36</v>
+        <v>-929</v>
       </c>
       <c r="E19" s="13">
-        <v>-929</v>
+        <v>907</v>
       </c>
       <c r="F19" s="13">
-        <v>907</v>
+        <v>3165</v>
       </c>
       <c r="G19" s="13">
-        <v>3165</v>
+        <v>4186</v>
       </c>
       <c r="H19" s="13">
-        <v>4186</v>
+        <v>2694</v>
       </c>
       <c r="I19" s="13">
-        <v>2694</v>
+        <v>4137</v>
       </c>
       <c r="J19" s="13">
-        <v>4137</v>
+        <v>699</v>
       </c>
       <c r="K19" s="13">
-        <v>699</v>
+        <v>4990</v>
       </c>
       <c r="L19" s="13">
-        <v>4990</v>
+        <v>1677</v>
       </c>
       <c r="M19" s="13">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-4653</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>70289</v>
+        <v>97263</v>
       </c>
       <c r="E20" s="17">
-        <v>97263</v>
+        <v>22620</v>
       </c>
       <c r="F20" s="17">
-        <v>22620</v>
+        <v>88258</v>
       </c>
       <c r="G20" s="17">
-        <v>88258</v>
+        <v>33517</v>
       </c>
       <c r="H20" s="17">
-        <v>33517</v>
+        <v>-34637</v>
       </c>
       <c r="I20" s="17">
-        <v>-34637</v>
+        <v>-10401</v>
       </c>
       <c r="J20" s="17">
-        <v>-115396</v>
+        <v>46674</v>
       </c>
       <c r="K20" s="17">
-        <v>46674</v>
+        <v>-246</v>
       </c>
       <c r="L20" s="17">
-        <v>-246</v>
+        <v>38225</v>
       </c>
       <c r="M20" s="17">
-        <v>38225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10347</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1208,56 +1209,56 @@
       <c r="I21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>31</v>
+      <c r="J21" s="13">
+        <v>-9335</v>
       </c>
       <c r="K21" s="13">
-        <v>-9335</v>
+        <v>8844</v>
       </c>
       <c r="L21" s="13">
-        <v>8844</v>
+        <v>-15496</v>
       </c>
       <c r="M21" s="13">
-        <v>-15496</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11845</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>70289</v>
+        <v>97263</v>
       </c>
       <c r="E22" s="17">
-        <v>97263</v>
+        <v>22620</v>
       </c>
       <c r="F22" s="17">
-        <v>22620</v>
+        <v>88258</v>
       </c>
       <c r="G22" s="17">
-        <v>88258</v>
+        <v>33517</v>
       </c>
       <c r="H22" s="17">
-        <v>33517</v>
+        <v>-34637</v>
       </c>
       <c r="I22" s="17">
-        <v>-34637</v>
+        <v>-10401</v>
       </c>
       <c r="J22" s="17">
-        <v>-115396</v>
+        <v>37339</v>
       </c>
       <c r="K22" s="17">
-        <v>37339</v>
+        <v>8598</v>
       </c>
       <c r="L22" s="17">
-        <v>8598</v>
+        <v>22729</v>
       </c>
       <c r="M22" s="17">
-        <v>22729</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>70289</v>
+        <v>97263</v>
       </c>
       <c r="E24" s="17">
-        <v>97263</v>
+        <v>22620</v>
       </c>
       <c r="F24" s="17">
-        <v>22620</v>
+        <v>88258</v>
       </c>
       <c r="G24" s="17">
-        <v>88258</v>
+        <v>33517</v>
       </c>
       <c r="H24" s="17">
-        <v>33517</v>
+        <v>-34637</v>
       </c>
       <c r="I24" s="17">
-        <v>-34637</v>
+        <v>-10401</v>
       </c>
       <c r="J24" s="17">
-        <v>-115396</v>
+        <v>37339</v>
       </c>
       <c r="K24" s="17">
-        <v>37339</v>
+        <v>8598</v>
       </c>
       <c r="L24" s="17">
-        <v>8598</v>
+        <v>22729</v>
       </c>
       <c r="M24" s="17">
-        <v>22729</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>10883</v>
+        <v>8831</v>
       </c>
       <c r="E26" s="11">
-        <v>8831</v>
+        <v>9826</v>
       </c>
       <c r="F26" s="11">
-        <v>9826</v>
+        <v>10287</v>
       </c>
       <c r="G26" s="11">
-        <v>10287</v>
+        <v>9195</v>
       </c>
       <c r="H26" s="11">
-        <v>9195</v>
+        <v>8429</v>
       </c>
       <c r="I26" s="11">
-        <v>8429</v>
+        <v>8713</v>
       </c>
       <c r="J26" s="11">
-        <v>8713</v>
+        <v>8168</v>
       </c>
       <c r="K26" s="11">
-        <v>8168</v>
+        <v>7738</v>
       </c>
       <c r="L26" s="11">
-        <v>7738</v>
+        <v>6908</v>
       </c>
       <c r="M26" s="11">
-        <v>6908</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2A897-0329-41F2-A87B-D916C8F43507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155ACD9-8900-4C4F-93C5-87CCCBB01076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-10-29 (2)</t>
-  </si>
-  <si>
     <t>1401-04-08 (8)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1402-02-30 (8)</t>
-  </si>
-  <si>
-    <t>1401-05-04 (2)</t>
+    <t>1402-04-14 (9)</t>
+  </si>
+  <si>
+    <t>1402-04-28 (3)</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
@@ -97,7 +94,7 @@
     <t>1401-10-28</t>
   </si>
   <si>
-    <t>1402-02-30</t>
+    <t>1402-04-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -626,12 +623,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -806,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -828,511 +825,511 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>211182</v>
+        <v>162845</v>
       </c>
       <c r="E11" s="13">
-        <v>162845</v>
+        <v>234396</v>
       </c>
       <c r="F11" s="13">
-        <v>234396</v>
+        <v>207527</v>
       </c>
       <c r="G11" s="13">
-        <v>207527</v>
+        <v>159961</v>
       </c>
       <c r="H11" s="13">
-        <v>159961</v>
+        <v>138812</v>
       </c>
       <c r="I11" s="13">
-        <v>138812</v>
+        <v>236542</v>
       </c>
       <c r="J11" s="13">
-        <v>236542</v>
+        <v>187229</v>
       </c>
       <c r="K11" s="13">
-        <v>187229</v>
+        <v>133430</v>
       </c>
       <c r="L11" s="13">
-        <v>133430</v>
+        <v>88615</v>
       </c>
       <c r="M11" s="13">
-        <v>88615</v>
+        <v>129732</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-80536</v>
+        <v>-82861</v>
       </c>
       <c r="E12" s="11">
-        <v>-82861</v>
+        <v>-102279</v>
       </c>
       <c r="F12" s="11">
-        <v>-102279</v>
+        <v>-145235</v>
       </c>
       <c r="G12" s="11">
-        <v>-145235</v>
+        <v>-181308</v>
       </c>
       <c r="H12" s="11">
-        <v>-181308</v>
+        <v>-119285</v>
       </c>
       <c r="I12" s="11">
-        <v>-119285</v>
+        <v>-150219</v>
       </c>
       <c r="J12" s="11">
-        <v>-150219</v>
+        <v>-145770</v>
       </c>
       <c r="K12" s="11">
-        <v>-145770</v>
+        <v>-86446</v>
       </c>
       <c r="L12" s="11">
-        <v>-86446</v>
+        <v>-56588</v>
       </c>
       <c r="M12" s="11">
-        <v>-61521</v>
+        <v>-75180</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>130646</v>
+        <v>79983</v>
       </c>
       <c r="E13" s="15">
-        <v>79983</v>
+        <v>132116</v>
       </c>
       <c r="F13" s="15">
-        <v>132116</v>
+        <v>62292</v>
       </c>
       <c r="G13" s="15">
-        <v>62292</v>
+        <v>-21347</v>
       </c>
       <c r="H13" s="15">
-        <v>-21347</v>
+        <v>19527</v>
       </c>
       <c r="I13" s="15">
-        <v>19527</v>
+        <v>86323</v>
       </c>
       <c r="J13" s="15">
-        <v>86323</v>
+        <v>41459</v>
       </c>
       <c r="K13" s="15">
-        <v>41459</v>
+        <v>46983</v>
       </c>
       <c r="L13" s="15">
-        <v>46983</v>
+        <v>32026</v>
       </c>
       <c r="M13" s="15">
-        <v>27094</v>
+        <v>54552</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-42382</v>
+        <v>-38281</v>
       </c>
       <c r="E14" s="11">
-        <v>-38281</v>
+        <v>-37942</v>
       </c>
       <c r="F14" s="11">
-        <v>-37942</v>
+        <v>-40861</v>
       </c>
       <c r="G14" s="11">
-        <v>-40861</v>
+        <v>-16717</v>
       </c>
       <c r="H14" s="11">
-        <v>-16717</v>
+        <v>-22461</v>
       </c>
       <c r="I14" s="11">
-        <v>-31010</v>
+        <v>-43652</v>
       </c>
       <c r="J14" s="11">
-        <v>-43652</v>
+        <v>-44386</v>
       </c>
       <c r="K14" s="11">
-        <v>-44386</v>
+        <v>-24090</v>
       </c>
       <c r="L14" s="11">
-        <v>-24090</v>
+        <v>-20295</v>
       </c>
       <c r="M14" s="11">
-        <v>-24943</v>
+        <v>-26252</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>9928</v>
+        <v>-19989</v>
       </c>
       <c r="E16" s="11">
-        <v>-19989</v>
+        <v>-9081</v>
       </c>
       <c r="F16" s="11">
-        <v>-9081</v>
+        <v>7900</v>
       </c>
       <c r="G16" s="11">
-        <v>7900</v>
+        <v>733</v>
       </c>
       <c r="H16" s="11">
-        <v>733</v>
+        <v>-3055</v>
       </c>
       <c r="I16" s="11">
-        <v>-3055</v>
+        <v>3306</v>
       </c>
       <c r="J16" s="11">
-        <v>3306</v>
+        <v>-2309</v>
       </c>
       <c r="K16" s="11">
-        <v>-2309</v>
+        <v>13656</v>
       </c>
       <c r="L16" s="11">
-        <v>13656</v>
+        <v>2031</v>
       </c>
       <c r="M16" s="11">
-        <v>12849</v>
+        <v>-4340</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>98192</v>
+        <v>21713</v>
       </c>
       <c r="E17" s="15">
-        <v>21713</v>
+        <v>85093</v>
       </c>
       <c r="F17" s="15">
-        <v>85093</v>
+        <v>29331</v>
       </c>
       <c r="G17" s="15">
-        <v>29331</v>
+        <v>-37331</v>
       </c>
       <c r="H17" s="15">
-        <v>-37331</v>
+        <v>-5989</v>
       </c>
       <c r="I17" s="15">
-        <v>-14539</v>
+        <v>45976</v>
       </c>
       <c r="J17" s="15">
-        <v>45976</v>
+        <v>-5236</v>
       </c>
       <c r="K17" s="15">
-        <v>-5236</v>
+        <v>36549</v>
       </c>
       <c r="L17" s="15">
-        <v>36549</v>
+        <v>13763</v>
       </c>
       <c r="M17" s="15">
-        <v>15000</v>
+        <v>23959</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-929</v>
+        <v>907</v>
       </c>
       <c r="E19" s="13">
-        <v>907</v>
+        <v>3165</v>
       </c>
       <c r="F19" s="13">
-        <v>3165</v>
+        <v>4186</v>
       </c>
       <c r="G19" s="13">
-        <v>4186</v>
+        <v>2694</v>
       </c>
       <c r="H19" s="13">
-        <v>2694</v>
+        <v>4137</v>
       </c>
       <c r="I19" s="13">
-        <v>4137</v>
+        <v>-8636</v>
       </c>
       <c r="J19" s="13">
-        <v>699</v>
+        <v>4990</v>
       </c>
       <c r="K19" s="13">
-        <v>4990</v>
+        <v>1677</v>
       </c>
       <c r="L19" s="13">
-        <v>1677</v>
+        <v>-6193</v>
       </c>
       <c r="M19" s="13">
-        <v>-4653</v>
+        <v>-4468</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>97263</v>
+        <v>22620</v>
       </c>
       <c r="E20" s="17">
-        <v>22620</v>
+        <v>88258</v>
       </c>
       <c r="F20" s="17">
-        <v>88258</v>
+        <v>33517</v>
       </c>
       <c r="G20" s="17">
-        <v>33517</v>
+        <v>-34637</v>
       </c>
       <c r="H20" s="17">
-        <v>-34637</v>
+        <v>-1852</v>
       </c>
       <c r="I20" s="17">
-        <v>-10401</v>
+        <v>37339</v>
       </c>
       <c r="J20" s="17">
-        <v>46674</v>
+        <v>-246</v>
       </c>
       <c r="K20" s="17">
-        <v>-246</v>
+        <v>38225</v>
       </c>
       <c r="L20" s="17">
-        <v>38225</v>
+        <v>7570</v>
       </c>
       <c r="M20" s="17">
-        <v>10347</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="13">
-        <v>-9335</v>
+        <v>8844</v>
       </c>
       <c r="K21" s="13">
-        <v>8844</v>
+        <v>-15496</v>
       </c>
       <c r="L21" s="13">
-        <v>-15496</v>
-      </c>
-      <c r="M21" s="13">
         <v>11845</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>97263</v>
+        <v>22620</v>
       </c>
       <c r="E22" s="17">
-        <v>22620</v>
+        <v>88258</v>
       </c>
       <c r="F22" s="17">
-        <v>88258</v>
+        <v>33517</v>
       </c>
       <c r="G22" s="17">
-        <v>33517</v>
+        <v>-34637</v>
       </c>
       <c r="H22" s="17">
-        <v>-34637</v>
+        <v>-1852</v>
       </c>
       <c r="I22" s="17">
-        <v>-10401</v>
+        <v>37339</v>
       </c>
       <c r="J22" s="17">
-        <v>37339</v>
+        <v>8598</v>
       </c>
       <c r="K22" s="17">
-        <v>8598</v>
+        <v>22729</v>
       </c>
       <c r="L22" s="17">
-        <v>22729</v>
+        <v>19415</v>
       </c>
       <c r="M22" s="17">
-        <v>22192</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>97263</v>
+        <v>22620</v>
       </c>
       <c r="E24" s="17">
-        <v>22620</v>
+        <v>88258</v>
       </c>
       <c r="F24" s="17">
-        <v>88258</v>
+        <v>33517</v>
       </c>
       <c r="G24" s="17">
-        <v>33517</v>
+        <v>-34637</v>
       </c>
       <c r="H24" s="17">
-        <v>-34637</v>
+        <v>-1852</v>
       </c>
       <c r="I24" s="17">
-        <v>-10401</v>
+        <v>37339</v>
       </c>
       <c r="J24" s="17">
-        <v>37339</v>
+        <v>8598</v>
       </c>
       <c r="K24" s="17">
-        <v>8598</v>
+        <v>22729</v>
       </c>
       <c r="L24" s="17">
-        <v>22729</v>
+        <v>19415</v>
       </c>
       <c r="M24" s="17">
-        <v>22192</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1368,43 +1365,43 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>8831</v>
+        <v>9826</v>
       </c>
       <c r="E26" s="11">
-        <v>9826</v>
+        <v>10287</v>
       </c>
       <c r="F26" s="11">
-        <v>10287</v>
+        <v>9195</v>
       </c>
       <c r="G26" s="11">
-        <v>9195</v>
+        <v>8429</v>
       </c>
       <c r="H26" s="11">
-        <v>8429</v>
+        <v>8713</v>
       </c>
       <c r="I26" s="11">
-        <v>8713</v>
+        <v>8168</v>
       </c>
       <c r="J26" s="11">
-        <v>8168</v>
+        <v>7738</v>
       </c>
       <c r="K26" s="11">
-        <v>7738</v>
+        <v>6908</v>
       </c>
       <c r="L26" s="11">
-        <v>6908</v>
+        <v>5280</v>
       </c>
       <c r="M26" s="11">
-        <v>5280</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">

--- a/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
+++ b/database/industries/methanol/zagros/income/quarterly/dollar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155ACD9-8900-4C4F-93C5-87CCCBB01076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5DB1AB-8FEF-453E-93AB-4F68AB5FC959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,36 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -68,6 +98,36 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1398-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-03-20 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1399-09-05 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-02 (8)</t>
+  </si>
+  <si>
+    <t>1400-04-28 (2)</t>
+  </si>
+  <si>
+    <t>1400-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
   </si>
   <si>
     <t>1401-04-08 (8)</t>
@@ -615,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,15 +683,20 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="15" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="21" width="29" customWidth="1"/>
+    <col min="22" max="22" width="31" customWidth="1"/>
+    <col min="23" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,514 +1017,944 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>241641</v>
+      </c>
+      <c r="E11" s="13">
+        <v>190507</v>
+      </c>
+      <c r="F11" s="13">
+        <v>122181</v>
+      </c>
+      <c r="G11" s="13">
+        <v>166807</v>
+      </c>
+      <c r="H11" s="13">
+        <v>173059</v>
+      </c>
+      <c r="I11" s="13">
+        <v>184283</v>
+      </c>
+      <c r="J11" s="13">
+        <v>90843</v>
+      </c>
+      <c r="K11" s="13">
+        <v>125777</v>
+      </c>
+      <c r="L11" s="13">
+        <v>116026</v>
+      </c>
+      <c r="M11" s="13">
+        <v>211182</v>
+      </c>
+      <c r="N11" s="13">
         <v>162845</v>
       </c>
-      <c r="E11" s="13">
+      <c r="O11" s="13">
         <v>234396</v>
       </c>
-      <c r="F11" s="13">
+      <c r="P11" s="13">
         <v>207527</v>
       </c>
-      <c r="G11" s="13">
+      <c r="Q11" s="13">
         <v>159961</v>
       </c>
-      <c r="H11" s="13">
+      <c r="R11" s="13">
         <v>138812</v>
       </c>
-      <c r="I11" s="13">
+      <c r="S11" s="13">
         <v>236542</v>
       </c>
-      <c r="J11" s="13">
+      <c r="T11" s="13">
         <v>187229</v>
       </c>
-      <c r="K11" s="13">
+      <c r="U11" s="13">
         <v>133430</v>
       </c>
-      <c r="L11" s="13">
+      <c r="V11" s="13">
         <v>88615</v>
       </c>
-      <c r="M11" s="13">
+      <c r="W11" s="13">
         <v>129732</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-51590</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-87431</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-71503</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-54385</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-61257</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-98582</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-64378</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-52382</v>
+      </c>
+      <c r="L12" s="11">
+        <v>-48469</v>
+      </c>
+      <c r="M12" s="11">
+        <v>-80536</v>
+      </c>
+      <c r="N12" s="11">
         <v>-82861</v>
       </c>
-      <c r="E12" s="11">
+      <c r="O12" s="11">
         <v>-102279</v>
       </c>
-      <c r="F12" s="11">
+      <c r="P12" s="11">
         <v>-145235</v>
       </c>
-      <c r="G12" s="11">
+      <c r="Q12" s="11">
         <v>-181308</v>
       </c>
-      <c r="H12" s="11">
+      <c r="R12" s="11">
         <v>-119285</v>
       </c>
-      <c r="I12" s="11">
+      <c r="S12" s="11">
         <v>-150219</v>
       </c>
-      <c r="J12" s="11">
+      <c r="T12" s="11">
         <v>-145770</v>
       </c>
-      <c r="K12" s="11">
+      <c r="U12" s="11">
         <v>-86446</v>
       </c>
-      <c r="L12" s="11">
+      <c r="V12" s="11">
         <v>-56588</v>
       </c>
-      <c r="M12" s="11">
+      <c r="W12" s="11">
         <v>-75180</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>190051</v>
+      </c>
+      <c r="E13" s="15">
+        <v>103076</v>
+      </c>
+      <c r="F13" s="15">
+        <v>50678</v>
+      </c>
+      <c r="G13" s="15">
+        <v>112422</v>
+      </c>
+      <c r="H13" s="15">
+        <v>111802</v>
+      </c>
+      <c r="I13" s="15">
+        <v>85701</v>
+      </c>
+      <c r="J13" s="15">
+        <v>26465</v>
+      </c>
+      <c r="K13" s="15">
+        <v>73395</v>
+      </c>
+      <c r="L13" s="15">
+        <v>67557</v>
+      </c>
+      <c r="M13" s="15">
+        <v>130646</v>
+      </c>
+      <c r="N13" s="15">
         <v>79983</v>
       </c>
-      <c r="E13" s="15">
+      <c r="O13" s="15">
         <v>132116</v>
       </c>
-      <c r="F13" s="15">
+      <c r="P13" s="15">
         <v>62292</v>
       </c>
-      <c r="G13" s="15">
+      <c r="Q13" s="15">
         <v>-21347</v>
       </c>
-      <c r="H13" s="15">
+      <c r="R13" s="15">
         <v>19527</v>
       </c>
-      <c r="I13" s="15">
+      <c r="S13" s="15">
         <v>86323</v>
       </c>
-      <c r="J13" s="15">
+      <c r="T13" s="15">
         <v>41459</v>
       </c>
-      <c r="K13" s="15">
+      <c r="U13" s="15">
         <v>46983</v>
       </c>
-      <c r="L13" s="15">
+      <c r="V13" s="15">
         <v>32026</v>
       </c>
-      <c r="M13" s="15">
+      <c r="W13" s="15">
         <v>54552</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-28417</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-19049</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-33333</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-26461</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-31855</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-41461</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-30490</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-40232</v>
+      </c>
+      <c r="L14" s="11">
+        <v>-29845</v>
+      </c>
+      <c r="M14" s="11">
+        <v>-42382</v>
+      </c>
+      <c r="N14" s="11">
         <v>-38281</v>
       </c>
-      <c r="E14" s="11">
+      <c r="O14" s="11">
         <v>-37942</v>
       </c>
-      <c r="F14" s="11">
+      <c r="P14" s="11">
         <v>-40861</v>
       </c>
-      <c r="G14" s="11">
+      <c r="Q14" s="11">
         <v>-16717</v>
       </c>
-      <c r="H14" s="11">
+      <c r="R14" s="11">
         <v>-22461</v>
       </c>
-      <c r="I14" s="11">
+      <c r="S14" s="11">
         <v>-43652</v>
       </c>
-      <c r="J14" s="11">
+      <c r="T14" s="11">
         <v>-44386</v>
       </c>
-      <c r="K14" s="11">
+      <c r="U14" s="11">
         <v>-24090</v>
       </c>
-      <c r="L14" s="11">
+      <c r="V14" s="11">
         <v>-20295</v>
       </c>
-      <c r="M14" s="11">
+      <c r="W14" s="11">
         <v>-26252</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>637</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3679</v>
+      </c>
+      <c r="F16" s="11">
+        <v>22632</v>
+      </c>
+      <c r="G16" s="11">
+        <v>36228</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-43695</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6749</v>
+      </c>
+      <c r="J16" s="11">
+        <v>23189</v>
+      </c>
+      <c r="K16" s="11">
+        <v>29344</v>
+      </c>
+      <c r="L16" s="11">
+        <v>32540</v>
+      </c>
+      <c r="M16" s="11">
+        <v>9928</v>
+      </c>
+      <c r="N16" s="11">
         <v>-19989</v>
       </c>
-      <c r="E16" s="11">
+      <c r="O16" s="11">
         <v>-9081</v>
       </c>
-      <c r="F16" s="11">
+      <c r="P16" s="11">
         <v>7900</v>
       </c>
-      <c r="G16" s="11">
+      <c r="Q16" s="11">
         <v>733</v>
       </c>
-      <c r="H16" s="11">
+      <c r="R16" s="11">
         <v>-3055</v>
       </c>
-      <c r="I16" s="11">
+      <c r="S16" s="11">
         <v>3306</v>
       </c>
-      <c r="J16" s="11">
+      <c r="T16" s="11">
         <v>-2309</v>
       </c>
-      <c r="K16" s="11">
+      <c r="U16" s="11">
         <v>13656</v>
       </c>
-      <c r="L16" s="11">
+      <c r="V16" s="11">
         <v>2031</v>
       </c>
-      <c r="M16" s="11">
+      <c r="W16" s="11">
         <v>-4340</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>162272</v>
+      </c>
+      <c r="E17" s="15">
+        <v>87705</v>
+      </c>
+      <c r="F17" s="15">
+        <v>39976</v>
+      </c>
+      <c r="G17" s="15">
+        <v>122189</v>
+      </c>
+      <c r="H17" s="15">
+        <v>36252</v>
+      </c>
+      <c r="I17" s="15">
+        <v>50989</v>
+      </c>
+      <c r="J17" s="15">
+        <v>19164</v>
+      </c>
+      <c r="K17" s="15">
+        <v>62507</v>
+      </c>
+      <c r="L17" s="15">
+        <v>70252</v>
+      </c>
+      <c r="M17" s="15">
+        <v>98192</v>
+      </c>
+      <c r="N17" s="15">
         <v>21713</v>
       </c>
-      <c r="E17" s="15">
+      <c r="O17" s="15">
         <v>85093</v>
       </c>
-      <c r="F17" s="15">
+      <c r="P17" s="15">
         <v>29331</v>
       </c>
-      <c r="G17" s="15">
+      <c r="Q17" s="15">
         <v>-37331</v>
       </c>
-      <c r="H17" s="15">
+      <c r="R17" s="15">
         <v>-5989</v>
       </c>
-      <c r="I17" s="15">
+      <c r="S17" s="15">
         <v>45976</v>
       </c>
-      <c r="J17" s="15">
+      <c r="T17" s="15">
         <v>-5236</v>
       </c>
-      <c r="K17" s="15">
+      <c r="U17" s="15">
         <v>36549</v>
       </c>
-      <c r="L17" s="15">
+      <c r="V17" s="15">
         <v>13763</v>
       </c>
-      <c r="M17" s="15">
+      <c r="W17" s="15">
         <v>23959</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>9785</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2249</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-5749</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1195</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-5638</v>
+      </c>
+      <c r="I19" s="13">
+        <v>12000</v>
+      </c>
+      <c r="J19" s="13">
+        <v>-9853</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1660</v>
+      </c>
+      <c r="L19" s="13">
+        <v>36</v>
+      </c>
+      <c r="M19" s="13">
+        <v>-929</v>
+      </c>
+      <c r="N19" s="13">
         <v>907</v>
       </c>
-      <c r="E19" s="13">
+      <c r="O19" s="13">
         <v>3165</v>
       </c>
-      <c r="F19" s="13">
+      <c r="P19" s="13">
         <v>4186</v>
       </c>
-      <c r="G19" s="13">
+      <c r="Q19" s="13">
         <v>2694</v>
       </c>
-      <c r="H19" s="13">
+      <c r="R19" s="13">
         <v>4137</v>
       </c>
-      <c r="I19" s="13">
+      <c r="S19" s="13">
         <v>-8636</v>
       </c>
-      <c r="J19" s="13">
+      <c r="T19" s="13">
         <v>4990</v>
       </c>
-      <c r="K19" s="13">
+      <c r="U19" s="13">
         <v>1677</v>
       </c>
-      <c r="L19" s="13">
+      <c r="V19" s="13">
         <v>-6193</v>
       </c>
-      <c r="M19" s="13">
+      <c r="W19" s="13">
         <v>-4468</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>172057</v>
+      </c>
+      <c r="E20" s="17">
+        <v>89955</v>
+      </c>
+      <c r="F20" s="17">
+        <v>34228</v>
+      </c>
+      <c r="G20" s="17">
+        <v>123384</v>
+      </c>
+      <c r="H20" s="17">
+        <v>30614</v>
+      </c>
+      <c r="I20" s="17">
+        <v>62988</v>
+      </c>
+      <c r="J20" s="17">
+        <v>9311</v>
+      </c>
+      <c r="K20" s="17">
+        <v>64167</v>
+      </c>
+      <c r="L20" s="17">
+        <v>70289</v>
+      </c>
+      <c r="M20" s="17">
+        <v>97263</v>
+      </c>
+      <c r="N20" s="17">
         <v>22620</v>
       </c>
-      <c r="E20" s="17">
+      <c r="O20" s="17">
         <v>88258</v>
       </c>
-      <c r="F20" s="17">
+      <c r="P20" s="17">
         <v>33517</v>
       </c>
-      <c r="G20" s="17">
+      <c r="Q20" s="17">
         <v>-34637</v>
       </c>
-      <c r="H20" s="17">
+      <c r="R20" s="17">
         <v>-1852</v>
       </c>
-      <c r="I20" s="17">
+      <c r="S20" s="17">
         <v>37339</v>
       </c>
-      <c r="J20" s="17">
+      <c r="T20" s="17">
         <v>-246</v>
       </c>
-      <c r="K20" s="17">
+      <c r="U20" s="17">
         <v>38225</v>
       </c>
-      <c r="L20" s="17">
+      <c r="V20" s="17">
         <v>7570</v>
       </c>
-      <c r="M20" s="17">
+      <c r="W20" s="17">
         <v>19491</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-1656</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J21" s="13">
+        <v>-54</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" s="13">
         <v>8844</v>
       </c>
-      <c r="K21" s="13">
+      <c r="U21" s="13">
         <v>-15496</v>
       </c>
-      <c r="L21" s="13">
+      <c r="V21" s="13">
         <v>11845</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="W21" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>172057</v>
+      </c>
+      <c r="E22" s="17">
+        <v>89955</v>
+      </c>
+      <c r="F22" s="17">
+        <v>32571</v>
+      </c>
+      <c r="G22" s="17">
+        <v>123384</v>
+      </c>
+      <c r="H22" s="17">
+        <v>30614</v>
+      </c>
+      <c r="I22" s="17">
+        <v>62988</v>
+      </c>
+      <c r="J22" s="17">
+        <v>9257</v>
+      </c>
+      <c r="K22" s="17">
+        <v>64167</v>
+      </c>
+      <c r="L22" s="17">
+        <v>70289</v>
+      </c>
+      <c r="M22" s="17">
+        <v>97263</v>
+      </c>
+      <c r="N22" s="17">
         <v>22620</v>
       </c>
-      <c r="E22" s="17">
+      <c r="O22" s="17">
         <v>88258</v>
       </c>
-      <c r="F22" s="17">
+      <c r="P22" s="17">
         <v>33517</v>
       </c>
-      <c r="G22" s="17">
+      <c r="Q22" s="17">
         <v>-34637</v>
       </c>
-      <c r="H22" s="17">
+      <c r="R22" s="17">
         <v>-1852</v>
       </c>
-      <c r="I22" s="17">
+      <c r="S22" s="17">
         <v>37339</v>
       </c>
-      <c r="J22" s="17">
+      <c r="T22" s="17">
         <v>8598</v>
       </c>
-      <c r="K22" s="17">
+      <c r="U22" s="17">
         <v>22729</v>
       </c>
-      <c r="L22" s="17">
+      <c r="V22" s="17">
         <v>19415</v>
       </c>
-      <c r="M22" s="17">
+      <c r="W22" s="17">
         <v>19491</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>172057</v>
+      </c>
+      <c r="E24" s="17">
+        <v>89955</v>
+      </c>
+      <c r="F24" s="17">
+        <v>32571</v>
+      </c>
+      <c r="G24" s="17">
+        <v>123384</v>
+      </c>
+      <c r="H24" s="17">
+        <v>30614</v>
+      </c>
+      <c r="I24" s="17">
+        <v>62988</v>
+      </c>
+      <c r="J24" s="17">
+        <v>9257</v>
+      </c>
+      <c r="K24" s="17">
+        <v>64167</v>
+      </c>
+      <c r="L24" s="17">
+        <v>70289</v>
+      </c>
+      <c r="M24" s="17">
+        <v>97263</v>
+      </c>
+      <c r="N24" s="17">
         <v>22620</v>
       </c>
-      <c r="E24" s="17">
+      <c r="O24" s="17">
         <v>88258</v>
       </c>
-      <c r="F24" s="17">
+      <c r="P24" s="17">
         <v>33517</v>
       </c>
-      <c r="G24" s="17">
+      <c r="Q24" s="17">
         <v>-34637</v>
       </c>
-      <c r="H24" s="17">
+      <c r="R24" s="17">
         <v>-1852</v>
       </c>
-      <c r="I24" s="17">
+      <c r="S24" s="17">
         <v>37339</v>
       </c>
-      <c r="J24" s="17">
+      <c r="T24" s="17">
         <v>8598</v>
       </c>
-      <c r="K24" s="17">
+      <c r="U24" s="17">
         <v>22729</v>
       </c>
-      <c r="L24" s="17">
+      <c r="V24" s="17">
         <v>19415</v>
       </c>
-      <c r="M24" s="17">
+      <c r="W24" s="17">
         <v>19491</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1362,46 +1987,106 @@
       <c r="M25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>23741</v>
+      </c>
+      <c r="E26" s="11">
+        <v>18427</v>
+      </c>
+      <c r="F26" s="11">
+        <v>20263</v>
+      </c>
+      <c r="G26" s="11">
+        <v>17427</v>
+      </c>
+      <c r="H26" s="11">
+        <v>20086</v>
+      </c>
+      <c r="I26" s="11">
+        <v>20270</v>
+      </c>
+      <c r="J26" s="11">
+        <v>17356</v>
+      </c>
+      <c r="K26" s="11">
+        <v>14738</v>
+      </c>
+      <c r="L26" s="11">
+        <v>10883</v>
+      </c>
+      <c r="M26" s="11">
+        <v>8831</v>
+      </c>
+      <c r="N26" s="11">
         <v>9826</v>
       </c>
-      <c r="E26" s="11">
+      <c r="O26" s="11">
         <v>10287</v>
       </c>
-      <c r="F26" s="11">
+      <c r="P26" s="11">
         <v>9195</v>
       </c>
-      <c r="G26" s="11">
+      <c r="Q26" s="11">
         <v>8429</v>
       </c>
-      <c r="H26" s="11">
+      <c r="R26" s="11">
         <v>8713</v>
       </c>
-      <c r="I26" s="11">
+      <c r="S26" s="11">
         <v>8168</v>
       </c>
-      <c r="J26" s="11">
+      <c r="T26" s="11">
         <v>7738</v>
       </c>
-      <c r="K26" s="11">
+      <c r="U26" s="11">
         <v>6908</v>
       </c>
-      <c r="L26" s="11">
+      <c r="V26" s="11">
         <v>5280</v>
       </c>
-      <c r="M26" s="11">
+      <c r="W26" s="11">
         <v>4658</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1434,8 +2119,38 @@
       <c r="M27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
